--- a/Etiquette/SRO-21-011-077-ETIQUETTE.xlsx
+++ b/Etiquette/SRO-21-011-077-ETIQUETTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="278">
   <si>
     <t>CODE POINT TECHNIQUE</t>
   </si>
@@ -133,15 +133,15 @@
     <t>21464/419743</t>
   </si>
   <si>
+    <t>CDI-21-011-077-1028-24 FO</t>
+  </si>
+  <si>
+    <t>F97179290721-09/2021</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-1027-24 FO</t>
   </si>
   <si>
-    <t>F97179290721-09/2021</t>
-  </si>
-  <si>
-    <t>CDI-21-011-077-1028-24 FO</t>
-  </si>
-  <si>
     <t>21464/419741</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>21464/419745</t>
   </si>
   <si>
+    <t>F97120290721-09/2021</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-1026-24 FO</t>
   </si>
   <si>
-    <t>F97120290721-09/2021</t>
-  </si>
-  <si>
     <t>21464/0419747</t>
   </si>
   <si>
@@ -247,7 +247,7 @@
     <t>FAC-21464-4850</t>
   </si>
   <si>
-    <t>SRO-21-011-077</t>
+    <t>CHA-21464-4895</t>
   </si>
   <si>
     <t>CMO-21464-4420</t>
@@ -265,9 +265,6 @@
     <t>CMO-21464-4900</t>
   </si>
   <si>
-    <t>CHA-21464-4895</t>
-  </si>
-  <si>
     <t>21464/762</t>
   </si>
   <si>
@@ -409,21 +406,21 @@
     <t>CDI-21-011-077-1002-12 FO</t>
   </si>
   <si>
+    <t>CDI-21-011-077-1007-72 FO</t>
+  </si>
+  <si>
+    <t>CDI-21-011-077-1009-72 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-1004-36 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-077-1007-72 FO</t>
+    <t>CDI-21-011-077-1008-36 FO</t>
   </si>
   <si>
     <t>CDI-21-011-077-1001-36 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-077-1009-72 FO</t>
-  </si>
-  <si>
-    <t>CDI-21-011-077-1008-36 FO</t>
-  </si>
-  <si>
     <t>21464/713</t>
   </si>
   <si>
@@ -433,12 +430,12 @@
     <t>21464/790</t>
   </si>
   <si>
+    <t>CDI-21-011-077-1006-36 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-1005-24 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-077-1006-36 FO</t>
-  </si>
-  <si>
     <t>21464/1113</t>
   </si>
   <si>
@@ -472,15 +469,15 @@
     <t>21464/792</t>
   </si>
   <si>
+    <t>CDI-21-011-077-1036-12 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-1011-72 FO</t>
   </si>
   <si>
     <t>CDI-21-011-077-1035-24 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-077-1036-12 FO</t>
-  </si>
-  <si>
     <t>21464/781</t>
   </si>
   <si>
@@ -517,12 +514,12 @@
     <t>21464/883</t>
   </si>
   <si>
+    <t>CDI-21-011-077-3030-12 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-3021-12 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-077-3030-12 FO</t>
-  </si>
-  <si>
     <t>CDI-21-011-077-3011-36 FO</t>
   </si>
   <si>
@@ -541,10 +538,10 @@
     <t>21464/425</t>
   </si>
   <si>
+    <t>CDI-21-011-077-3017-96 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-3020-72 FO</t>
-  </si>
-  <si>
-    <t>CDI-21-011-077-3017-96 FO</t>
   </si>
   <si>
     <t>21464/752</t>
@@ -1198,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G372"/>
+  <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1472,7 +1469,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
@@ -1493,7 +1490,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>24</v>
@@ -1745,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>43</v>
@@ -1766,10 +1763,10 @@
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1787,10 +1784,10 @@
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -2470,8 +2467,8 @@
       <c r="A61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>51</v>
+      <c r="B61" s="1">
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
@@ -2480,16 +2477,16 @@
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="1">
         <v>2</v>
@@ -2501,7 +2498,7 @@
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>49</v>
@@ -2510,7 +2507,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B63" s="1">
         <v>2</v>
@@ -2531,7 +2528,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1">
         <v>2</v>
@@ -2552,7 +2549,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" s="1">
         <v>2</v>
@@ -2564,7 +2561,7 @@
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>49</v>
@@ -2573,7 +2570,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66" s="1">
         <v>2</v>
@@ -2585,7 +2582,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>49</v>
@@ -2594,7 +2591,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B67" s="1">
         <v>2</v>
@@ -2606,7 +2603,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>49</v>
@@ -2615,7 +2612,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" s="1">
         <v>2</v>
@@ -2636,7 +2633,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" s="1">
         <v>2</v>
@@ -2657,7 +2654,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1">
         <v>2</v>
@@ -2669,7 +2666,7 @@
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>49</v>
@@ -2678,7 +2675,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="1">
         <v>2</v>
@@ -2690,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>49</v>
@@ -2699,7 +2696,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="1">
         <v>2</v>
@@ -2720,7 +2717,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="1">
         <v>2</v>
@@ -2732,7 +2729,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>49</v>
@@ -2741,19 +2738,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B74" s="1">
-        <v>2</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>49</v>
@@ -2762,7 +2759,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" s="1">
         <v>2</v>
@@ -2783,7 +2780,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="1">
         <v>2</v>
@@ -2795,16 +2792,16 @@
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B77" s="1">
         <v>2</v>
@@ -2816,10 +2813,10 @@
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G77" s="1"/>
     </row>
@@ -2837,16 +2834,16 @@
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B79" s="1">
         <v>2</v>
@@ -2858,7 +2855,7 @@
         <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>49</v>
@@ -2879,7 +2876,7 @@
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>49</v>
@@ -2888,7 +2885,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B81" s="1">
         <v>2</v>
@@ -2900,7 +2897,7 @@
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>49</v>
@@ -2921,7 +2918,7 @@
         <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>49</v>
@@ -2930,7 +2927,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B83" s="1">
         <v>2</v>
@@ -2951,7 +2948,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="1">
         <v>2</v>
@@ -2963,7 +2960,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>49</v>
@@ -2972,7 +2969,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B85" s="1">
         <v>2</v>
@@ -2984,7 +2981,7 @@
         <v>9</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>49</v>
@@ -2993,7 +2990,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B86" s="1">
         <v>2</v>
@@ -3005,7 +3002,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>49</v>
@@ -3014,7 +3011,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B87" s="1">
         <v>2</v>
@@ -3026,7 +3023,7 @@
         <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>49</v>
@@ -3035,7 +3032,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B88" s="1">
         <v>2</v>
@@ -3047,7 +3044,7 @@
         <v>9</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>49</v>
@@ -3068,7 +3065,7 @@
         <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>49</v>
@@ -3077,7 +3074,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -3098,7 +3095,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" s="1">
         <v>2</v>
@@ -3110,7 +3107,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>49</v>
@@ -3119,7 +3116,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B92" s="1">
         <v>2</v>
@@ -3131,7 +3128,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>49</v>
@@ -3140,7 +3137,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93" s="1">
         <v>2</v>
@@ -3152,7 +3149,7 @@
         <v>9</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>49</v>
@@ -3161,19 +3158,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B94" s="1">
-        <v>2</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>49</v>
@@ -3182,7 +3179,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B95" s="1">
         <v>2</v>
@@ -3194,7 +3191,7 @@
         <v>9</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>49</v>
@@ -3203,7 +3200,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" s="1">
         <v>2</v>
@@ -3215,7 +3212,7 @@
         <v>9</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>49</v>
@@ -3224,7 +3221,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B97" s="1">
         <v>2</v>
@@ -3236,7 +3233,7 @@
         <v>9</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>49</v>
@@ -3245,7 +3242,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B98" s="1">
         <v>2</v>
@@ -3257,7 +3254,7 @@
         <v>9</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>49</v>
@@ -3266,7 +3263,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B99" s="1">
         <v>2</v>
@@ -3278,7 +3275,7 @@
         <v>9</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>49</v>
@@ -3299,7 +3296,7 @@
         <v>9</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>49</v>
@@ -3320,7 +3317,7 @@
         <v>9</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>49</v>
@@ -3329,7 +3326,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
@@ -3362,7 +3359,7 @@
         <v>9</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>49</v>
@@ -3371,7 +3368,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
@@ -3383,7 +3380,7 @@
         <v>9</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>49</v>
@@ -3392,7 +3389,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -3404,7 +3401,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>49</v>
@@ -3425,16 +3422,16 @@
         <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B107" s="1">
         <v>2</v>
@@ -3449,13 +3446,13 @@
         <v>39</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B108" s="1">
         <v>2</v>
@@ -3467,28 +3464,28 @@
         <v>9</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B109" s="1">
-        <v>2</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>49</v>
@@ -3497,7 +3494,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B110" s="1">
         <v>2</v>
@@ -3509,7 +3506,7 @@
         <v>9</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>49</v>
@@ -3518,7 +3515,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="1">
         <v>2</v>
@@ -3539,19 +3536,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B112" s="1">
-        <v>2</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>49</v>
@@ -3560,7 +3557,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="1">
         <v>2</v>
@@ -3572,7 +3569,7 @@
         <v>9</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>49</v>
@@ -3593,7 +3590,7 @@
         <v>9</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>49</v>
@@ -3602,7 +3599,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B115" s="1">
         <v>2</v>
@@ -3635,7 +3632,7 @@
         <v>9</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>49</v>
@@ -3644,7 +3641,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B117" s="1">
         <v>2</v>
@@ -3665,7 +3662,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B118" s="1">
         <v>2</v>
@@ -3686,7 +3683,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B119" s="1">
         <v>2</v>
@@ -3707,7 +3704,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B120" s="1">
         <v>2</v>
@@ -3728,7 +3725,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B121" s="1">
         <v>2</v>
@@ -3749,7 +3746,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B122" s="1">
         <v>2</v>
@@ -3761,7 +3758,7 @@
         <v>9</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>49</v>
@@ -3770,7 +3767,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123" s="1">
         <v>2</v>
@@ -3782,7 +3779,7 @@
         <v>9</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>49</v>
@@ -3791,7 +3788,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B124" s="1">
         <v>2</v>
@@ -3803,7 +3800,7 @@
         <v>9</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>49</v>
@@ -3812,7 +3809,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B125" s="1">
         <v>2</v>
@@ -3824,7 +3821,7 @@
         <v>9</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>49</v>
@@ -3833,19 +3830,19 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B126" s="1">
-        <v>2</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>49</v>
@@ -3854,7 +3851,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B127" s="1">
         <v>2</v>
@@ -3866,7 +3863,7 @@
         <v>9</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>49</v>
@@ -3875,7 +3872,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B128" s="1">
         <v>2</v>
@@ -3887,7 +3884,7 @@
         <v>9</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>49</v>
@@ -3896,7 +3893,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B129" s="1">
         <v>2</v>
@@ -3908,7 +3905,7 @@
         <v>9</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>49</v>
@@ -3917,7 +3914,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B130" s="1">
         <v>2</v>
@@ -3929,7 +3926,7 @@
         <v>9</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>49</v>
@@ -3938,7 +3935,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B131" s="1">
         <v>2</v>
@@ -3950,7 +3947,7 @@
         <v>9</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>49</v>
@@ -3959,7 +3956,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B132" s="1">
         <v>2</v>
@@ -3971,7 +3968,7 @@
         <v>9</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>49</v>
@@ -3980,7 +3977,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B133" s="1">
         <v>2</v>
@@ -3992,7 +3989,7 @@
         <v>9</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>49</v>
@@ -4001,7 +3998,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B134" s="1">
         <v>2</v>
@@ -4013,7 +4010,7 @@
         <v>9</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>49</v>
@@ -4022,7 +4019,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B135" s="1">
         <v>2</v>
@@ -4034,7 +4031,7 @@
         <v>9</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>49</v>
@@ -4043,7 +4040,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="1">
         <v>2</v>
@@ -4055,7 +4052,7 @@
         <v>9</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>49</v>
@@ -4064,7 +4061,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B137" s="1">
         <v>2</v>
@@ -4076,7 +4073,7 @@
         <v>9</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>49</v>
@@ -4085,7 +4082,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B138" s="1">
         <v>2</v>
@@ -4097,7 +4094,7 @@
         <v>9</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>49</v>
@@ -4106,19 +4103,19 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B139" s="1">
-        <v>2</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>49</v>
@@ -4127,7 +4124,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" s="1">
         <v>2</v>
@@ -4139,7 +4136,7 @@
         <v>9</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>49</v>
@@ -4148,7 +4145,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="1">
         <v>2</v>
@@ -4160,7 +4157,7 @@
         <v>9</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>49</v>
@@ -4169,7 +4166,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" s="1">
         <v>2</v>
@@ -4181,7 +4178,7 @@
         <v>9</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>49</v>
@@ -4190,7 +4187,7 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143" s="1">
         <v>2</v>
@@ -4211,7 +4208,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" s="1">
         <v>2</v>
@@ -4223,7 +4220,7 @@
         <v>9</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>49</v>
@@ -4232,7 +4229,7 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1">
         <v>2</v>
@@ -4244,7 +4241,7 @@
         <v>9</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>49</v>
@@ -4253,7 +4250,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1">
         <v>2</v>
@@ -4265,7 +4262,7 @@
         <v>9</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>49</v>
@@ -4274,7 +4271,7 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="1">
         <v>2</v>
@@ -4286,7 +4283,7 @@
         <v>9</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>49</v>
@@ -4295,7 +4292,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" s="1">
         <v>2</v>
@@ -4307,7 +4304,7 @@
         <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>49</v>
@@ -4316,7 +4313,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B149" s="1">
         <v>2</v>
@@ -4328,7 +4325,7 @@
         <v>9</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>49</v>
@@ -4337,7 +4334,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150" s="1">
         <v>2</v>
@@ -4349,7 +4346,7 @@
         <v>9</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>49</v>
@@ -4358,19 +4355,19 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B151" s="1">
-        <v>2</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>49</v>
@@ -4379,7 +4376,7 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" s="1">
         <v>2</v>
@@ -4391,7 +4388,7 @@
         <v>9</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>49</v>
@@ -4400,7 +4397,7 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B153" s="1">
         <v>2</v>
@@ -4412,7 +4409,7 @@
         <v>9</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>49</v>
@@ -4421,7 +4418,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B154" s="1">
         <v>2</v>
@@ -4433,7 +4430,7 @@
         <v>9</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>49</v>
@@ -4442,19 +4439,19 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B155" s="1">
-        <v>2</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>49</v>
@@ -4463,7 +4460,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B156" s="1">
         <v>2</v>
@@ -4475,7 +4472,7 @@
         <v>9</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>49</v>
@@ -4484,7 +4481,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B157" s="1">
         <v>2</v>
@@ -4496,7 +4493,7 @@
         <v>9</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>49</v>
@@ -4505,7 +4502,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B158" s="1">
         <v>2</v>
@@ -4517,7 +4514,7 @@
         <v>9</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>49</v>
@@ -4526,7 +4523,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B159" s="1">
         <v>2</v>
@@ -4547,7 +4544,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B160" s="1">
         <v>2</v>
@@ -4559,7 +4556,7 @@
         <v>9</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>43</v>
@@ -4568,7 +4565,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B161" s="1">
         <v>2</v>
@@ -4580,7 +4577,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>49</v>
@@ -4589,7 +4586,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B162" s="1">
         <v>2</v>
@@ -4601,7 +4598,7 @@
         <v>9</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>21</v>
@@ -4610,7 +4607,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B163" s="1">
         <v>2</v>
@@ -4622,7 +4619,7 @@
         <v>9</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>21</v>
@@ -4631,7 +4628,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B164" s="1">
         <v>2</v>
@@ -4643,7 +4640,7 @@
         <v>9</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>49</v>
@@ -4652,19 +4649,19 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B165" s="1">
-        <v>2</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>49</v>
@@ -4673,7 +4670,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B166" s="1">
         <v>2</v>
@@ -4685,7 +4682,7 @@
         <v>9</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>49</v>
@@ -4694,7 +4691,7 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B167" s="1">
         <v>2</v>
@@ -4706,7 +4703,7 @@
         <v>9</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>49</v>
@@ -4946,19 +4943,19 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B179" s="1">
+        <v>2</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B179" s="1">
-        <v>2</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>21</v>
@@ -4967,7 +4964,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B180" s="1">
         <v>2</v>
@@ -4979,7 +4976,7 @@
         <v>9</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>21</v>
@@ -4988,7 +4985,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B181" s="1">
         <v>2</v>
@@ -5009,19 +5006,19 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B182" s="1">
+        <v>2</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B182" s="1">
-        <v>2</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>11</v>
@@ -5030,19 +5027,19 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B183" s="1">
-        <v>2</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>11</v>
@@ -5051,7 +5048,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B184" s="1">
         <v>2</v>
@@ -5063,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>11</v>
@@ -5072,7 +5069,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B185" s="1">
         <v>2</v>
@@ -5084,7 +5081,7 @@
         <v>9</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>11</v>
@@ -5093,19 +5090,19 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B186" s="1">
-        <v>2</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>11</v>
@@ -5114,7 +5111,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B187" s="1">
         <v>2</v>
@@ -5126,7 +5123,7 @@
         <v>9</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>11</v>
@@ -5135,7 +5132,7 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B188" s="1">
         <v>2</v>
@@ -5147,7 +5144,7 @@
         <v>9</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>11</v>
@@ -5156,7 +5153,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B189" s="1">
         <v>2</v>
@@ -5177,7 +5174,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B190" s="1">
         <v>2</v>
@@ -5198,19 +5195,19 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B191" s="1">
-        <v>2</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>11</v>
@@ -5219,7 +5216,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B192" s="1">
         <v>2</v>
@@ -5231,7 +5228,7 @@
         <v>9</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>11</v>
@@ -5240,7 +5237,7 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B193" s="1">
         <v>2</v>
@@ -5252,7 +5249,7 @@
         <v>9</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>11</v>
@@ -5261,7 +5258,7 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B194" s="1">
         <v>2</v>
@@ -5273,7 +5270,7 @@
         <v>9</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>11</v>
@@ -5282,7 +5279,7 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B195" s="1">
         <v>2</v>
@@ -5294,7 +5291,7 @@
         <v>9</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>21</v>
@@ -5303,7 +5300,7 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B196" s="1">
         <v>2</v>
@@ -5315,7 +5312,7 @@
         <v>9</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>21</v>
@@ -5324,7 +5321,7 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B197" s="1">
         <v>2</v>
@@ -5345,7 +5342,7 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B198" s="1">
         <v>2</v>
@@ -5366,7 +5363,7 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B199" s="1">
         <v>2</v>
@@ -5387,7 +5384,7 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B200" s="1">
         <v>2</v>
@@ -5408,7 +5405,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B201" s="1">
         <v>2</v>
@@ -5429,7 +5426,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B202" s="1">
         <v>2</v>
@@ -5441,7 +5438,7 @@
         <v>9</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>21</v>
@@ -5450,7 +5447,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B203" s="1">
         <v>2</v>
@@ -5462,7 +5459,7 @@
         <v>9</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>21</v>
@@ -5471,7 +5468,7 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B204" s="1">
         <v>2</v>
@@ -5483,7 +5480,7 @@
         <v>9</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>21</v>
@@ -5492,7 +5489,7 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B205" s="1">
         <v>2</v>
@@ -5513,7 +5510,7 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B206" s="1">
         <v>2</v>
@@ -5525,7 +5522,7 @@
         <v>9</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>21</v>
@@ -5534,7 +5531,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B207" s="1">
         <v>2</v>
@@ -5546,7 +5543,7 @@
         <v>9</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>21</v>
@@ -5555,7 +5552,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B208" s="1">
         <v>2</v>
@@ -5576,7 +5573,7 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B209" s="1">
         <v>2</v>
@@ -5588,7 +5585,7 @@
         <v>9</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>21</v>
@@ -5597,7 +5594,7 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B210" s="1">
         <v>2</v>
@@ -5609,7 +5606,7 @@
         <v>9</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>21</v>
@@ -5618,7 +5615,7 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B211" s="1">
         <v>2</v>
@@ -5630,7 +5627,7 @@
         <v>9</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>21</v>
@@ -5639,7 +5636,7 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B212" s="1">
         <v>2</v>
@@ -5651,7 +5648,7 @@
         <v>9</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>21</v>
@@ -5660,7 +5657,7 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B213" s="1">
         <v>2</v>
@@ -5672,7 +5669,7 @@
         <v>9</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>21</v>
@@ -5681,7 +5678,7 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B214" s="1">
         <v>2</v>
@@ -5693,7 +5690,7 @@
         <v>9</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>21</v>
@@ -5702,7 +5699,7 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B215" s="1">
         <v>2</v>
@@ -5714,7 +5711,7 @@
         <v>9</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>21</v>
@@ -5723,7 +5720,7 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B216" s="1">
         <v>2</v>
@@ -5735,7 +5732,7 @@
         <v>9</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>21</v>
@@ -5744,7 +5741,7 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B217" s="1">
         <v>2</v>
@@ -5756,7 +5753,7 @@
         <v>9</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>21</v>
@@ -5765,7 +5762,7 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B218" s="1">
         <v>2</v>
@@ -5777,7 +5774,7 @@
         <v>9</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>21</v>
@@ -5786,19 +5783,19 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B219" s="1">
+        <v>2</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B219" s="1">
-        <v>2</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>21</v>
@@ -5807,7 +5804,7 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B220" s="1">
         <v>2</v>
@@ -5828,7 +5825,7 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B221" s="1">
         <v>2</v>
@@ -5849,7 +5846,7 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B222" s="1">
         <v>2</v>
@@ -5870,7 +5867,7 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B223" s="1">
         <v>2</v>
@@ -5891,7 +5888,7 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B224" s="1">
         <v>2</v>
@@ -5903,7 +5900,7 @@
         <v>9</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>17</v>
@@ -5912,7 +5909,7 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B225" s="1">
         <v>2</v>
@@ -5933,7 +5930,7 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B226" s="1">
         <v>2</v>
@@ -5945,7 +5942,7 @@
         <v>9</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>17</v>
@@ -5954,7 +5951,7 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B227" s="1">
         <v>2</v>
@@ -5966,7 +5963,7 @@
         <v>9</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>21</v>
@@ -5975,7 +5972,7 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B228" s="1">
         <v>2</v>
@@ -5987,7 +5984,7 @@
         <v>9</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>21</v>
@@ -5996,7 +5993,7 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B229" s="1">
         <v>2</v>
@@ -6008,7 +6005,7 @@
         <v>9</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>21</v>
@@ -6017,7 +6014,7 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B230" s="1">
         <v>2</v>
@@ -6029,7 +6026,7 @@
         <v>9</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>21</v>
@@ -6038,7 +6035,7 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B231" s="1">
         <v>2</v>
@@ -6050,7 +6047,7 @@
         <v>9</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>21</v>
@@ -6059,7 +6056,7 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B232" s="1">
         <v>2</v>
@@ -6071,7 +6068,7 @@
         <v>9</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>11</v>
@@ -6080,7 +6077,7 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B233" s="1">
         <v>2</v>
@@ -6101,7 +6098,7 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B234" s="1">
         <v>2</v>
@@ -6113,7 +6110,7 @@
         <v>9</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>11</v>
@@ -6122,7 +6119,7 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B235" s="1">
         <v>2</v>
@@ -6134,7 +6131,7 @@
         <v>9</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>11</v>
@@ -6143,7 +6140,7 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B236" s="1">
         <v>2</v>
@@ -6164,7 +6161,7 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B237" s="1">
         <v>2</v>
@@ -6176,7 +6173,7 @@
         <v>9</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>11</v>
@@ -6185,7 +6182,7 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B238" s="1">
         <v>2</v>
@@ -6197,7 +6194,7 @@
         <v>9</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>11</v>
@@ -6206,7 +6203,7 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B239" s="1">
         <v>2</v>
@@ -6218,7 +6215,7 @@
         <v>9</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>11</v>
@@ -6281,7 +6278,7 @@
         <v>9</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>43</v>
@@ -6302,10 +6299,10 @@
         <v>9</v>
       </c>
       <c r="E243" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G243" s="1"/>
     </row>
@@ -6323,10 +6320,10 @@
         <v>9</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G244" s="1"/>
     </row>
@@ -6344,7 +6341,7 @@
         <v>9</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>52</v>
@@ -6365,7 +6362,7 @@
         <v>9</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>52</v>
@@ -6386,7 +6383,7 @@
         <v>9</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>52</v>
@@ -6407,7 +6404,7 @@
         <v>9</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>52</v>
@@ -6428,7 +6425,7 @@
         <v>9</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>52</v>
@@ -6449,7 +6446,7 @@
         <v>9</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>52</v>
@@ -6512,7 +6509,7 @@
         <v>9</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>52</v>
@@ -6533,7 +6530,7 @@
         <v>9</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>52</v>
@@ -6554,7 +6551,7 @@
         <v>9</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>52</v>
@@ -6575,7 +6572,7 @@
         <v>9</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>52</v>
@@ -6596,7 +6593,7 @@
         <v>9</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>52</v>
@@ -6617,7 +6614,7 @@
         <v>9</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>52</v>
@@ -6638,7 +6635,7 @@
         <v>9</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>52</v>
@@ -6659,7 +6656,7 @@
         <v>9</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>52</v>
@@ -6680,7 +6677,7 @@
         <v>9</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>52</v>
@@ -6722,7 +6719,7 @@
         <v>9</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>52</v>
@@ -6743,7 +6740,7 @@
         <v>9</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>52</v>
@@ -6785,7 +6782,7 @@
         <v>9</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>52</v>
@@ -6848,7 +6845,7 @@
         <v>9</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>52</v>
@@ -6869,7 +6866,7 @@
         <v>9</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>52</v>
@@ -6878,7 +6875,7 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B271" s="1">
         <v>1</v>
@@ -6890,7 +6887,7 @@
         <v>9</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>52</v>
@@ -6899,7 +6896,7 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B272" s="1">
         <v>1</v>
@@ -6911,16 +6908,16 @@
         <v>9</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G272" s="1"/>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B273" s="1">
         <v>1</v>
@@ -6932,16 +6929,16 @@
         <v>9</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G273" s="1"/>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B274" s="1">
         <v>1</v>
@@ -6953,10 +6950,10 @@
         <v>9</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G274" s="1"/>
     </row>
@@ -6974,7 +6971,7 @@
         <v>9</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>52</v>
@@ -6995,7 +6992,7 @@
         <v>9</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>52</v>
@@ -7016,7 +7013,7 @@
         <v>9</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>52</v>
@@ -7037,7 +7034,7 @@
         <v>9</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>52</v>
@@ -7046,7 +7043,7 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B279" s="1">
         <v>2</v>
@@ -7079,7 +7076,7 @@
         <v>9</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>52</v>
@@ -7100,7 +7097,7 @@
         <v>9</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>52</v>
@@ -7121,7 +7118,7 @@
         <v>9</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>52</v>
@@ -7130,7 +7127,7 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B283" s="1">
         <v>2</v>
@@ -7142,16 +7139,16 @@
         <v>9</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G283" s="1"/>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B284" s="1">
         <v>2</v>
@@ -7163,16 +7160,16 @@
         <v>9</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G284" s="1"/>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B285" s="1">
         <v>2</v>
@@ -7187,13 +7184,13 @@
         <v>192</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G285" s="1"/>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B286" s="1">
         <v>2</v>
@@ -7205,16 +7202,16 @@
         <v>9</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G286" s="1"/>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B287" s="1">
         <v>2</v>
@@ -7226,16 +7223,16 @@
         <v>9</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G287" s="1"/>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B288" s="1">
         <v>2</v>
@@ -7247,16 +7244,16 @@
         <v>9</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G288" s="1"/>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B289" s="1">
         <v>2</v>
@@ -7268,7 +7265,7 @@
         <v>9</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>49</v>
@@ -7289,7 +7286,7 @@
         <v>9</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>52</v>
@@ -7310,7 +7307,7 @@
         <v>9</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>52</v>
@@ -7331,7 +7328,7 @@
         <v>9</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>52</v>
@@ -7352,7 +7349,7 @@
         <v>9</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>52</v>
@@ -7373,7 +7370,7 @@
         <v>9</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>52</v>
@@ -7394,7 +7391,7 @@
         <v>9</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>52</v>
@@ -7403,7 +7400,7 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B296" s="1">
         <v>2</v>
@@ -7415,7 +7412,7 @@
         <v>9</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>49</v>
@@ -7424,7 +7421,7 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B297" s="1">
         <v>2</v>
@@ -7436,7 +7433,7 @@
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>49</v>
@@ -7445,7 +7442,7 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B298" s="1">
         <v>2</v>
@@ -7457,7 +7454,7 @@
         <v>9</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>49</v>
@@ -7499,7 +7496,7 @@
         <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>52</v>
@@ -7508,10 +7505,10 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B301" s="1">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>8</v>
@@ -7520,19 +7517,19 @@
         <v>9</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G301" s="1"/>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B302" s="1">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>8</v>
@@ -7541,19 +7538,19 @@
         <v>9</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G302" s="1"/>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B303" s="1">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>8</v>
@@ -7562,16 +7559,16 @@
         <v>9</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G303" s="1"/>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>51</v>
@@ -7583,16 +7580,16 @@
         <v>9</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G304" s="1"/>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="1" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>51</v>
@@ -7604,16 +7601,16 @@
         <v>9</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G305" s="1"/>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="1" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>51</v>
@@ -7625,16 +7622,16 @@
         <v>9</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G306" s="1"/>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="1" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>51</v>
@@ -7646,16 +7643,16 @@
         <v>9</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G307" s="1"/>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="1" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>51</v>
@@ -7667,16 +7664,16 @@
         <v>9</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G308" s="1"/>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="1" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>51</v>
@@ -7688,16 +7685,16 @@
         <v>9</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G309" s="1"/>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="1" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>51</v>
@@ -7709,16 +7706,16 @@
         <v>9</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G310" s="1"/>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>51</v>
@@ -7730,16 +7727,16 @@
         <v>9</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G311" s="1"/>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>51</v>
@@ -7751,16 +7748,16 @@
         <v>9</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G312" s="1"/>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>51</v>
@@ -7772,16 +7769,16 @@
         <v>9</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G313" s="1"/>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>51</v>
@@ -7793,16 +7790,16 @@
         <v>9</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G314" s="1"/>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>51</v>
@@ -7814,16 +7811,16 @@
         <v>9</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G315" s="1"/>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="1" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>51</v>
@@ -7835,16 +7832,16 @@
         <v>9</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G316" s="1"/>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>51</v>
@@ -7856,16 +7853,16 @@
         <v>9</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G317" s="1"/>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>51</v>
@@ -7877,16 +7874,16 @@
         <v>9</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G318" s="1"/>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="1" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>51</v>
@@ -7898,16 +7895,16 @@
         <v>9</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G319" s="1"/>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>51</v>
@@ -7919,7 +7916,7 @@
         <v>9</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>52</v>
@@ -7928,7 +7925,7 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>51</v>
@@ -7940,7 +7937,7 @@
         <v>9</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>52</v>
@@ -7949,7 +7946,7 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>51</v>
@@ -7961,7 +7958,7 @@
         <v>9</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>52</v>
@@ -7970,7 +7967,7 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>51</v>
@@ -7982,7 +7979,7 @@
         <v>9</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>52</v>
@@ -7991,7 +7988,7 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>51</v>
@@ -8003,7 +8000,7 @@
         <v>9</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>52</v>
@@ -8012,7 +8009,7 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>51</v>
@@ -8024,7 +8021,7 @@
         <v>9</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>52</v>
@@ -8033,7 +8030,7 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>51</v>
@@ -8045,7 +8042,7 @@
         <v>9</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>52</v>
@@ -8054,7 +8051,7 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>51</v>
@@ -8066,7 +8063,7 @@
         <v>9</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>52</v>
@@ -8075,7 +8072,7 @@
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>51</v>
@@ -8087,7 +8084,7 @@
         <v>9</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>52</v>
@@ -8096,7 +8093,7 @@
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="1" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>51</v>
@@ -8108,16 +8105,16 @@
         <v>9</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G329" s="1"/>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="1" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>51</v>
@@ -8129,16 +8126,16 @@
         <v>9</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G330" s="1"/>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>51</v>
@@ -8150,7 +8147,7 @@
         <v>9</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>52</v>
@@ -8159,7 +8156,7 @@
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="1" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>51</v>
@@ -8171,16 +8168,16 @@
         <v>9</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G332" s="1"/>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="1" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>51</v>
@@ -8192,16 +8189,16 @@
         <v>9</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G333" s="1"/>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>51</v>
@@ -8213,7 +8210,7 @@
         <v>9</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>52</v>
@@ -8222,7 +8219,7 @@
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>51</v>
@@ -8234,16 +8231,16 @@
         <v>9</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G335" s="1"/>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>51</v>
@@ -8255,7 +8252,7 @@
         <v>9</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>52</v>
@@ -8264,7 +8261,7 @@
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>51</v>
@@ -8276,16 +8273,16 @@
         <v>9</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G337" s="1"/>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>51</v>
@@ -8297,7 +8294,7 @@
         <v>9</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>49</v>
@@ -8306,7 +8303,7 @@
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>51</v>
@@ -8318,7 +8315,7 @@
         <v>9</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>52</v>
@@ -8327,7 +8324,7 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="1" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>51</v>
@@ -8339,16 +8336,16 @@
         <v>9</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G340" s="1"/>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="1" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>51</v>
@@ -8360,7 +8357,7 @@
         <v>9</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>49</v>
@@ -8369,7 +8366,7 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="1" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>51</v>
@@ -8381,16 +8378,16 @@
         <v>9</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G342" s="1"/>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>51</v>
@@ -8402,7 +8399,7 @@
         <v>9</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>52</v>
@@ -8411,7 +8408,7 @@
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>51</v>
@@ -8423,7 +8420,7 @@
         <v>9</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>49</v>
@@ -8432,7 +8429,7 @@
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>51</v>
@@ -8444,7 +8441,7 @@
         <v>9</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>49</v>
@@ -8453,7 +8450,7 @@
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="1" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>51</v>
@@ -8465,16 +8462,16 @@
         <v>9</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G346" s="1"/>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="1" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>51</v>
@@ -8486,16 +8483,16 @@
         <v>9</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G347" s="1"/>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>51</v>
@@ -8507,7 +8504,7 @@
         <v>9</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>49</v>
@@ -8516,7 +8513,7 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>51</v>
@@ -8528,7 +8525,7 @@
         <v>9</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>49</v>
@@ -8537,7 +8534,7 @@
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="1" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>51</v>
@@ -8549,16 +8546,16 @@
         <v>9</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="1" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>51</v>
@@ -8570,7 +8567,7 @@
         <v>9</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>49</v>
@@ -8579,7 +8576,7 @@
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>51</v>
@@ -8591,7 +8588,7 @@
         <v>9</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>49</v>
@@ -8600,7 +8597,7 @@
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="1" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>51</v>
@@ -8612,16 +8609,16 @@
         <v>9</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G353" s="1"/>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>51</v>
@@ -8633,16 +8630,16 @@
         <v>9</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="1" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>51</v>
@@ -8654,7 +8651,7 @@
         <v>9</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>49</v>
@@ -8663,7 +8660,7 @@
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>51</v>
@@ -8675,7 +8672,7 @@
         <v>9</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>52</v>
@@ -8684,7 +8681,7 @@
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="1" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>51</v>
@@ -8696,16 +8693,16 @@
         <v>9</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G357" s="1"/>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="1" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>51</v>
@@ -8717,16 +8714,16 @@
         <v>9</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="1" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>51</v>
@@ -8738,16 +8735,16 @@
         <v>9</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>52</v>
+        <v>266</v>
       </c>
       <c r="G359" s="1"/>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="1" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>51</v>
@@ -8759,16 +8756,16 @@
         <v>9</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G360" s="1"/>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="1" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>51</v>
@@ -8780,16 +8777,16 @@
         <v>9</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>267</v>
+        <v>52</v>
       </c>
       <c r="G361" s="1"/>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>51</v>
@@ -8801,16 +8798,16 @@
         <v>9</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="G362" s="1"/>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="1" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>51</v>
@@ -8822,16 +8819,16 @@
         <v>9</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G363" s="1"/>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="1" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>51</v>
@@ -8843,16 +8840,16 @@
         <v>9</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G364" s="1"/>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="1" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>51</v>
@@ -8864,16 +8861,16 @@
         <v>9</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="G365" s="1"/>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="1" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>51</v>
@@ -8885,16 +8882,16 @@
         <v>9</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G366" s="1"/>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="1" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>51</v>
@@ -8906,16 +8903,16 @@
         <v>9</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G367" s="1"/>
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="1" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>51</v>
@@ -8927,16 +8924,16 @@
         <v>9</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>267</v>
+        <v>52</v>
       </c>
       <c r="G368" s="1"/>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="1" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>51</v>
@@ -8948,75 +8945,12 @@
         <v>9</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G369" s="1"/>
-    </row>
-    <row r="370" spans="1:7">
-      <c r="A370" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F370" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G370" s="1"/>
-    </row>
-    <row r="371" spans="1:7">
-      <c r="A371" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F371" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G371" s="1"/>
-    </row>
-    <row r="372" spans="1:7">
-      <c r="A372" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F372" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G372" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
